--- a/ipl/Rajasthan Royals/Sanju Samson (c)†.xlsx
+++ b/ipl/Rajasthan Royals/Sanju Samson (c)†.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -547,9 +547,415 @@
         <v>18th Match (N), Wankhede, April 24, 2021, Indian Premier League</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Sanju Samson (c)†</v>
+      </c>
+      <c r="B6" t="str">
+        <v>4</v>
+      </c>
+      <c r="C6" t="str">
+        <v>5</v>
+      </c>
+      <c r="D6" t="str">
+        <v>0</v>
+      </c>
+      <c r="E6" t="str">
+        <v>0</v>
+      </c>
+      <c r="F6" t="str">
+        <v>80.00</v>
+      </c>
+      <c r="G6" t="str">
+        <v>Punjab Kings</v>
+      </c>
+      <c r="H6" t="str">
+        <v>Royals won by 2 runs</v>
+      </c>
+      <c r="I6" t="str">
+        <v>32nd Match (N), Dubai (DSC), September 21, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Sanju Samson (c)†</v>
+      </c>
+      <c r="B7" t="str">
+        <v>3</v>
+      </c>
+      <c r="C7" t="str">
+        <v>6</v>
+      </c>
+      <c r="D7" t="str">
+        <v>0</v>
+      </c>
+      <c r="E7" t="str">
+        <v>0</v>
+      </c>
+      <c r="F7" t="str">
+        <v>50.00</v>
+      </c>
+      <c r="G7" t="str">
+        <v>Mumbai Indians</v>
+      </c>
+      <c r="H7" t="str">
+        <v>Mumbai won by 8 wickets (with 70 balls remaining)</v>
+      </c>
+      <c r="I7" t="str">
+        <v>51st Match (N), Sharjah, October 05, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Sanju Samson (c)†</v>
+      </c>
+      <c r="B8" t="str">
+        <v>1</v>
+      </c>
+      <c r="C8" t="str">
+        <v>4</v>
+      </c>
+      <c r="D8" t="str">
+        <v>0</v>
+      </c>
+      <c r="E8" t="str">
+        <v>0</v>
+      </c>
+      <c r="F8" t="str">
+        <v>25.00</v>
+      </c>
+      <c r="G8" t="str">
+        <v>Kolkata Knight Riders</v>
+      </c>
+      <c r="H8" t="str">
+        <v>KKR won by 86 runs</v>
+      </c>
+      <c r="I8" t="str">
+        <v>54th Match (N), Sharjah, October 07, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Sanju Samson (c)†</v>
+      </c>
+      <c r="B9" t="str">
+        <v>42</v>
+      </c>
+      <c r="C9" t="str">
+        <v>41</v>
+      </c>
+      <c r="D9" t="str">
+        <v>2</v>
+      </c>
+      <c r="E9" t="str">
+        <v>1</v>
+      </c>
+      <c r="F9" t="str">
+        <v>102.43</v>
+      </c>
+      <c r="G9" t="str">
+        <v>Kolkata Knight Riders</v>
+      </c>
+      <c r="H9" t="str">
+        <v>Royals won by 6 wickets (with 7 balls remaining)</v>
+      </c>
+      <c r="I9" t="str">
+        <v>18th Match (N), Wankhede, April 24, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Sanju Samson (c)†</v>
+      </c>
+      <c r="B10" t="str">
+        <v>42</v>
+      </c>
+      <c r="C10" t="str">
+        <v>27</v>
+      </c>
+      <c r="D10" t="str">
+        <v>5</v>
+      </c>
+      <c r="E10" t="str">
+        <v>0</v>
+      </c>
+      <c r="F10" t="str">
+        <v>155.55</v>
+      </c>
+      <c r="G10" t="str">
+        <v>Mumbai Indians</v>
+      </c>
+      <c r="H10" t="str">
+        <v>Mumbai won by 7 wickets (with 9 balls remaining)</v>
+      </c>
+      <c r="I10" t="str">
+        <v>24th Match (D/N), Delhi, April 29, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Sanju Samson (c)†</v>
+      </c>
+      <c r="B11" t="str">
+        <v>1</v>
+      </c>
+      <c r="C11" t="str">
+        <v>5</v>
+      </c>
+      <c r="D11" t="str">
+        <v>0</v>
+      </c>
+      <c r="E11" t="str">
+        <v>0</v>
+      </c>
+      <c r="F11" t="str">
+        <v>20.00</v>
+      </c>
+      <c r="G11" t="str">
+        <v>Chennai Super Kings</v>
+      </c>
+      <c r="H11" t="str">
+        <v>Super Kings won by 45 runs</v>
+      </c>
+      <c r="I11" t="str">
+        <v>12th Match (N), Wankhede, April 19, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Sanju Samson (c)†</v>
+      </c>
+      <c r="B12" t="str">
+        <v>48</v>
+      </c>
+      <c r="C12" t="str">
+        <v>33</v>
+      </c>
+      <c r="D12" t="str">
+        <v>4</v>
+      </c>
+      <c r="E12" t="str">
+        <v>2</v>
+      </c>
+      <c r="F12" t="str">
+        <v>145.45</v>
+      </c>
+      <c r="G12" t="str">
+        <v>Sunrisers Hyderabad</v>
+      </c>
+      <c r="H12" t="str">
+        <v>Royals won by 55 runs</v>
+      </c>
+      <c r="I12" t="str">
+        <v>28th Match (D/N), Delhi, May 02, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Sanju Samson (c)†</v>
+      </c>
+      <c r="B13" t="str">
+        <v>21</v>
+      </c>
+      <c r="C13" t="str">
+        <v>18</v>
+      </c>
+      <c r="D13" t="str">
+        <v>2</v>
+      </c>
+      <c r="E13" t="str">
+        <v>1</v>
+      </c>
+      <c r="F13" t="str">
+        <v>116.66</v>
+      </c>
+      <c r="G13" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+      <c r="H13" t="str">
+        <v>RCB won by 10 wickets (with 21 balls remaining)</v>
+      </c>
+      <c r="I13" t="str">
+        <v>16th Match (N), Wankhede, April 22, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Sanju Samson (c)†</v>
+      </c>
+      <c r="B14" t="str">
+        <v>70</v>
+      </c>
+      <c r="C14" t="str">
+        <v>53</v>
+      </c>
+      <c r="D14" t="str">
+        <v>8</v>
+      </c>
+      <c r="E14" t="str">
+        <v>1</v>
+      </c>
+      <c r="F14" t="str">
+        <v>132.07</v>
+      </c>
+      <c r="G14" t="str">
+        <v>Delhi Capitals</v>
+      </c>
+      <c r="H14" t="str">
+        <v>Capitals won by 33 runs</v>
+      </c>
+      <c r="I14" t="str">
+        <v>36th Match, Abu Dhabi, September 25, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Sanju Samson (c)†</v>
+      </c>
+      <c r="B15" t="str">
+        <v>28</v>
+      </c>
+      <c r="C15" t="str">
+        <v>24</v>
+      </c>
+      <c r="D15" t="str">
+        <v>4</v>
+      </c>
+      <c r="E15" t="str">
+        <v>0</v>
+      </c>
+      <c r="F15" t="str">
+        <v>116.66</v>
+      </c>
+      <c r="G15" t="str">
+        <v>Chennai Super Kings</v>
+      </c>
+      <c r="H15" t="str">
+        <v>Royals won by 7 wickets (with 15 balls remaining)</v>
+      </c>
+      <c r="I15" t="str">
+        <v>47th Match (N), Abu Dhabi, October 02, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Sanju Samson (c)†</v>
+      </c>
+      <c r="B16" t="str">
+        <v>82</v>
+      </c>
+      <c r="C16" t="str">
+        <v>57</v>
+      </c>
+      <c r="D16" t="str">
+        <v>7</v>
+      </c>
+      <c r="E16" t="str">
+        <v>3</v>
+      </c>
+      <c r="F16" t="str">
+        <v>143.85</v>
+      </c>
+      <c r="G16" t="str">
+        <v>Sunrisers Hyderabad</v>
+      </c>
+      <c r="H16" t="str">
+        <v>Sunrisers won by 7 wickets (with 9 balls remaining)</v>
+      </c>
+      <c r="I16" t="str">
+        <v>40th Match (N), Dubai (DSC), September 27, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Sanju Samson (c)†</v>
+      </c>
+      <c r="B17" t="str">
+        <v>19</v>
+      </c>
+      <c r="C17" t="str">
+        <v>15</v>
+      </c>
+      <c r="D17" t="str">
+        <v>0</v>
+      </c>
+      <c r="E17" t="str">
+        <v>2</v>
+      </c>
+      <c r="F17" t="str">
+        <v>126.66</v>
+      </c>
+      <c r="G17" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+      <c r="H17" t="str">
+        <v>RCB won by 7 wickets (with 17 balls remaining)</v>
+      </c>
+      <c r="I17" t="str">
+        <v>43rd Match (N), Dubai (DSC), September 29, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>Sanju Samson (c)†</v>
+      </c>
+      <c r="B18" t="str">
+        <v>4</v>
+      </c>
+      <c r="C18" t="str">
+        <v>3</v>
+      </c>
+      <c r="D18" t="str">
+        <v>1</v>
+      </c>
+      <c r="E18" t="str">
+        <v>0</v>
+      </c>
+      <c r="F18" t="str">
+        <v>133.33</v>
+      </c>
+      <c r="G18" t="str">
+        <v>Delhi Capitals</v>
+      </c>
+      <c r="H18" t="str">
+        <v>Royals won by 3 wickets (with 2 balls remaining)</v>
+      </c>
+      <c r="I18" t="str">
+        <v>7th Match (N), Wankhede, April 15, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Sanju Samson (c)†</v>
+      </c>
+      <c r="B19" t="str">
+        <v>119</v>
+      </c>
+      <c r="C19" t="str">
+        <v>63</v>
+      </c>
+      <c r="D19" t="str">
+        <v>12</v>
+      </c>
+      <c r="E19" t="str">
+        <v>7</v>
+      </c>
+      <c r="F19" t="str">
+        <v>188.88</v>
+      </c>
+      <c r="G19" t="str">
+        <v>Punjab Kings</v>
+      </c>
+      <c r="H19" t="str">
+        <v>Punjab Kings won by 4 runs</v>
+      </c>
+      <c r="I19" t="str">
+        <v>4th Match (N), Wankhede, April 12, 2021, Indian Premier League</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I19"/>
   </ignoredErrors>
 </worksheet>
 </file>